--- a/public/Ingest Employee Format.xlsx
+++ b/public/Ingest Employee Format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">Home Addres</t>
   </si>
@@ -70,52 +70,40 @@
     <t xml:space="preserve">Logout</t>
   </si>
   <si>
-    <t xml:space="preserve">sjkdghjkls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdkjgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMP0730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thirty@fiv.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
+    <t xml:space="preserve">Mll Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XERT4567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP0227731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testemailmll@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
   </si>
   <si>
     <t xml:space="preserve">Kanakpura Road</t>
   </si>
   <si>
-    <t xml:space="preserve">BTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skghsk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dombivali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdgsfgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:00</t>
+    <t xml:space="preserve">BDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WeWork_Malad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:35</t>
   </si>
 </sst>
 </file>
@@ -127,7 +115,7 @@
     <numFmt numFmtId="165" formatCode="D\-M\-YY"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -159,6 +147,13 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Helvetica Neue"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -170,7 +165,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +176,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -225,7 +226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,19 +247,35 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,6 +296,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF111111"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -287,10 +364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,34 +414,34 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -373,117 +450,120 @@
       <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="n">
-        <v>4958769</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="11" t="n">
+        <v>9894885211</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="10" t="n">
-        <v>19.678</v>
-      </c>
-      <c r="M3" s="10" t="n">
-        <v>72.5678</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="L3" s="14" t="n">
+        <v>12.745628</v>
+      </c>
+      <c r="M3" s="14" t="n">
+        <v>77.487709</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>31</v>
+      <c r="P3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="L1:M1"/>
@@ -493,7 +573,7 @@
     <mergeCell ref="T1:U1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="thirty@fiv.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="testemailmll@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.277777777777778"/>
